--- a/data/match_10.xlsx
+++ b/data/match_10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anton.shevchuk\dev\euroleague\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB90E06-4449-4667-B548-242CC7216050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE0B4EB-897D-4FEA-B351-20FFE8FB35CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="58">
   <si>
     <t>№</t>
   </si>
@@ -140,9 +140,6 @@
   </si>
   <si>
     <t>0:2</t>
-  </si>
-  <si>
-    <t>Оксанич Кирилл</t>
   </si>
   <si>
     <t>Гришин Антон</t>
@@ -580,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA19"/>
+  <dimension ref="A1:AA18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,13 +673,13 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -706,13 +703,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -736,19 +733,19 @@
         <v>0</v>
       </c>
       <c r="V2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y2">
+        <v>3</v>
+      </c>
+      <c r="Z2" t="s">
         <v>39</v>
-      </c>
-      <c r="Y2">
-        <v>3</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>40</v>
       </c>
       <c r="AA2">
         <v>0</v>
@@ -759,7 +756,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3">
         <v>20</v>
@@ -789,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -801,7 +798,7 @@
         <v>5</v>
       </c>
       <c r="P3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -819,19 +816,19 @@
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Y3">
         <v>5</v>
       </c>
       <c r="Z3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AA3">
         <v>0</v>
@@ -842,7 +839,7 @@
         <v>8.5</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4">
         <v>12</v>
@@ -854,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -866,7 +863,7 @@
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -878,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -890,7 +887,7 @@
         <v>2</v>
       </c>
       <c r="R4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S4">
         <v>2</v>
@@ -925,19 +922,19 @@
         <v>17.5</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5">
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -955,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -973,7 +970,7 @@
         <v>2</v>
       </c>
       <c r="R5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S5">
         <v>2</v>
@@ -985,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W5">
         <v>0</v>
@@ -997,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="Z5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA5">
         <v>0</v>
@@ -1008,7 +1005,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>20</v>
@@ -1085,7 +1082,7 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7">
         <v>10</v>
@@ -1097,13 +1094,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1115,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -1127,7 +1124,7 @@
         <v>5</v>
       </c>
       <c r="P7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -1139,13 +1136,13 @@
         <v>5</v>
       </c>
       <c r="T7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U7">
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W7">
         <v>0</v>
@@ -1157,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="Z7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AA7">
         <v>0</v>
@@ -1168,7 +1165,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8">
         <v>11</v>
@@ -1186,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1198,37 +1195,37 @@
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8" t="s">
+        <v>25</v>
+      </c>
+      <c r="S8">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s">
+        <v>26</v>
+      </c>
+      <c r="U8">
+        <v>3</v>
+      </c>
+      <c r="V8" t="s">
         <v>39</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8" t="s">
-        <v>25</v>
-      </c>
-      <c r="S8">
-        <v>5</v>
-      </c>
-      <c r="T8" t="s">
-        <v>26</v>
-      </c>
-      <c r="U8">
-        <v>3</v>
-      </c>
-      <c r="V8" t="s">
-        <v>40</v>
       </c>
       <c r="W8">
         <v>0</v>
@@ -1334,7 +1331,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10">
         <v>15</v>
@@ -1346,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1358,7 +1355,7 @@
         <v>3</v>
       </c>
       <c r="J10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1370,7 +1367,7 @@
         <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -1388,13 +1385,13 @@
         <v>5</v>
       </c>
       <c r="T10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U10">
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W10">
         <v>0</v>
@@ -1417,13 +1414,13 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11">
         <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1459,7 +1456,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -1477,7 +1474,7 @@
         <v>5</v>
       </c>
       <c r="V11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W11">
         <v>0</v>
@@ -1500,7 +1497,7 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C12">
         <v>9</v>
@@ -1512,25 +1509,25 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
         <v>52</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12" t="s">
-        <v>38</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12" t="s">
-        <v>53</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1542,19 +1539,19 @@
         <v>2</v>
       </c>
       <c r="P12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
       <c r="R12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S12">
         <v>2</v>
       </c>
       <c r="T12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U12">
         <v>0</v>
@@ -1566,13 +1563,13 @@
         <v>0</v>
       </c>
       <c r="X12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Y12">
         <v>5</v>
       </c>
       <c r="Z12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AA12">
         <v>0</v>
@@ -1583,7 +1580,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13">
         <v>10</v>
@@ -1595,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1613,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -1631,7 +1628,7 @@
         <v>2</v>
       </c>
       <c r="R13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S13">
         <v>0</v>
@@ -1746,61 +1743,61 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C15">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
         <v>31</v>
       </c>
-      <c r="G15">
-        <v>6</v>
-      </c>
-      <c r="H15" t="s">
-        <v>32</v>
-      </c>
       <c r="I15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J15" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N15" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="O15">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q15">
         <v>2</v>
       </c>
       <c r="R15" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T15" t="s">
         <v>25</v>
@@ -1809,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="W15">
         <v>0</v>
@@ -1821,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="Z15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AA15">
         <v>0</v>
@@ -1832,7 +1829,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C16">
         <v>10</v>
@@ -1844,67 +1841,67 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16" t="s">
+        <v>34</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16" t="s">
         <v>31</v>
       </c>
-      <c r="I16">
-        <v>3</v>
-      </c>
-      <c r="J16" t="s">
-        <v>25</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16" t="s">
-        <v>25</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16" t="s">
-        <v>35</v>
-      </c>
       <c r="O16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P16" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="Q16">
         <v>2</v>
       </c>
       <c r="R16" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="S16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="U16">
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="Y16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AA16">
         <v>0</v>
@@ -1912,82 +1909,82 @@
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>13</v>
+        <v>17.5</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C17">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
         <v>27</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17" t="s">
-        <v>25</v>
-      </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="O17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P17" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="U17">
         <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="W17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Y17">
         <v>5</v>
       </c>
       <c r="Z17" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="AA17">
         <v>0</v>
@@ -1995,31 +1992,31 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>17.5</v>
+        <v>8.5</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="C18">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" t="s">
         <v>27</v>
@@ -2028,140 +2025,57 @@
         <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
       <c r="R18" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T18" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="U18">
         <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="W18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X18" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y18">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z18" t="s">
         <v>26</v>
       </c>
       <c r="AA18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>8.5</v>
-      </c>
-      <c r="B19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19">
-        <v>12</v>
-      </c>
-      <c r="D19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19" t="s">
-        <v>32</v>
-      </c>
-      <c r="I19">
-        <v>2</v>
-      </c>
-      <c r="J19" t="s">
-        <v>27</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19" t="s">
-        <v>38</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19" t="s">
-        <v>26</v>
-      </c>
-      <c r="O19">
-        <v>5</v>
-      </c>
-      <c r="P19" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S19">
-        <v>5</v>
-      </c>
-      <c r="T19" t="s">
-        <v>38</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19" t="s">
-        <v>31</v>
-      </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y19">
-        <v>0</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA19">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA19">
-    <sortCondition ref="B1:B19"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA18">
+    <sortCondition ref="B1:B18"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
